--- a/docs/source/_files/example/SELF_INFO_MFMC_T0.xlsx
+++ b/docs/source/_files/example/SELF_INFO_MFMC_T0.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRF000000001</t>
+          <t>IGRF000000001</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
-          <t>GRAK1</t>
+          <t>EGRAK1</t>
         </is>
       </c>
       <c r="H4" s="15" t="n">
@@ -20693,7 +20693,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -22273,7 +22273,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr"/>
@@ -28472,7 +28472,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRAK1</t>
+          <t>EGRAK1</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -29241,7 +29241,7 @@
       </c>
       <c r="E4" s="13" t="inlineStr">
         <is>
-          <t>GRAK1</t>
+          <t>EGRAK1</t>
         </is>
       </c>
       <c r="F4" s="13" t="inlineStr">
@@ -31380,12 +31380,12 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="AA4" s="13" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="AB4" s="13" t="inlineStr"/>

--- a/docs/source/_files/example/SELF_INFO_MFMC_T0.xlsx
+++ b/docs/source/_files/example/SELF_INFO_MFMC_T0.xlsx
@@ -695,14 +695,14 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>self_info</t>
+          <t>SELF_INFO</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
+          <t>RA</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -714,12 +714,12 @@
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19836,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRF000000001</t>
+          <t>IGRF000000001</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr"/>
@@ -27618,12 +27618,12 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis@fooaedak.gr</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -28467,7 +28467,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -31319,7 +31319,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRAK1</t>
+          <t>EGRAK1</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr"/>
